--- a/dist/document/dest/2020/10/products/Tarfloz.xlsx
+++ b/dist/document/dest/2020/10/products/Tarfloz.xlsx
@@ -1,48 +1,221 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Index" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Index" state="visible" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+  <si>
+    <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
+  </si>
+  <si>
+    <t>BÁO CÁO TÌNH HÌNH MUA BÁN THUỐC TARFLOZ</t>
+  </si>
+  <si>
+    <t>01/09 -&gt; 30/09/2020</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Họ lót BS</t>
+  </si>
+  <si>
+    <t>Tên BS</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Phù Dung Thái</t>
+  </si>
+  <si>
+    <t>Biểu</t>
+  </si>
+  <si>
+    <t>Lương Thanh</t>
+  </si>
+  <si>
+    <t>Bửu</t>
+  </si>
+  <si>
+    <t>Hồ Tấn</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Phan Hữu Bội</t>
+  </si>
+  <si>
+    <t>Hoàn</t>
+  </si>
+  <si>
+    <t>Bùi Bỉnh</t>
+  </si>
+  <si>
+    <t>Huân</t>
+  </si>
+  <si>
+    <t>Trần Tấn</t>
+  </si>
+  <si>
+    <t>Hưng</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc</t>
+  </si>
+  <si>
+    <t>Khôi</t>
+  </si>
+  <si>
+    <t>Phùng Trọng</t>
+  </si>
+  <si>
+    <t>Kiên</t>
+  </si>
+  <si>
+    <t>Huỳnh Trác</t>
+  </si>
+  <si>
+    <t>Luân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Tuyết</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Trần Văn</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Nguyễn Thuý</t>
+  </si>
+  <si>
+    <t>Nga</t>
+  </si>
+  <si>
+    <t>Võ Nguyễn Thành</t>
+  </si>
+  <si>
+    <t>Nhân</t>
+  </si>
+  <si>
+    <t>Trương Công</t>
+  </si>
+  <si>
+    <t>Thành</t>
+  </si>
+  <si>
+    <t>Đặng Bữu</t>
+  </si>
+  <si>
+    <t>Thất</t>
+  </si>
+  <si>
+    <t>Võ Trọng</t>
+  </si>
+  <si>
+    <t>Thịnh</t>
+  </si>
+  <si>
+    <t>Phạm Thị Thu</t>
+  </si>
+  <si>
+    <t>Thuỷ</t>
+  </si>
+  <si>
+    <t>Lê Đình</t>
+  </si>
+  <si>
+    <t>Tín</t>
+  </si>
+  <si>
+    <t>Phạm Huỳnh Bảo</t>
+  </si>
+  <si>
+    <t>Trân</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn</t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>File này được sinh ra bởi Yến Phạm</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="13">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="&quot;Yes&quot;;&quot;Yes&quot;;&quot;No&quot;"/>
-    <numFmt numFmtId="165" formatCode="&quot;True&quot;;&quot;True&quot;;&quot;False&quot;"/>
-    <numFmt numFmtId="166" formatCode="&quot;On&quot;;&quot;On&quot;;&quot;Off&quot;"/>
-    <numFmt numFmtId="167" formatCode="[$€-2]\ #,##0.00_);[Red]\([$€-2]\ #,##0.00\)"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <i/>
+      <color rgb="FF7b7979"/>
+      <sz val="12"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFe1dbdb"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,19 +223,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -387,407 +608,446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Ngày</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Họ lót BS</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Tên BS</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Thuốc</v>
-      </c>
-      <c r="E1" t="str">
-        <v>SL</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Nguyễn Thị Hồng</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Anh</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E2" s="1">
+    <row r="1" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" ht="22" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10">
         <v>225</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Phù Dung Thái</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Biểu</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E3" s="1">
+    <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="10">
         <v>1500</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Lương Thanh</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Bửu</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E4" s="1">
+    <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="10">
         <v>708</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Hồ Tấn</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Đạt</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E5" s="1">
+    <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="10">
         <v>420</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Phan Hữu Bội</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Hoàn</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E6" s="1">
+    <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10">
         <v>630</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Bùi Bỉnh</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Huân</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E7" s="1">
+    <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="10">
         <v>90</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Trần Tấn</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Hưng</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E8" s="1">
+    <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="10">
         <v>97</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Nguyễn Ngọc</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Khôi</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E9" s="1">
+    <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>8</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="10">
         <v>1950</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Phùng Trọng</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Kiên</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E10" s="1">
+    <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="10">
         <v>630</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Huỳnh Trác</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Luân</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E11" s="1">
+    <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="10">
         <v>860</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Nguyễn Thị Tuyết</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Mai</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E12" s="1">
+    <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="10">
         <v>210</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Trần Văn</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Nam</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E13" s="1">
+    <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>12</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="10">
         <v>70</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Nguyễn Thuý</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Nga</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E14" s="1">
+    <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>13</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="10">
         <v>720</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Võ Nguyễn Thành</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Nhân</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E15" s="1">
+    <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>14</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="10">
         <v>60</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B16" t="str">
-        <v>Trương Công</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Thành</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E16" s="1">
+    <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>15</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="10">
         <v>168</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B17" t="str">
-        <v>Đặng Bữu</v>
-      </c>
-      <c r="C17" t="str">
-        <v>Thất</v>
-      </c>
-      <c r="D17" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E17" s="1">
+    <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="10">
         <v>150</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B18" t="str">
-        <v>Võ Trọng</v>
-      </c>
-      <c r="C18" t="str">
-        <v>Thịnh</v>
-      </c>
-      <c r="D18" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E18" s="1">
+    <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>17</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B19" t="str">
-        <v>Phạm Thị Thu</v>
-      </c>
-      <c r="C19" t="str">
-        <v>Thuỷ</v>
-      </c>
-      <c r="D19" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E19" s="1">
+    <row r="23" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>18</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="10">
         <v>510</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B20" t="str">
-        <v>Lê Đình</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Tín</v>
-      </c>
-      <c r="D20" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E20" s="1">
+    <row r="24" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>19</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="10">
         <v>72</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B21" t="str">
-        <v>Phạm Huỳnh Bảo</v>
-      </c>
-      <c r="C21" t="str">
-        <v>Trân</v>
-      </c>
-      <c r="D21" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E21" s="1">
+    <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>20</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="10">
         <v>120</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>01/09 -&gt; 30/09/2020</v>
-      </c>
-      <c r="B22" t="str">
-        <v>Nguyễn Tuấn</v>
-      </c>
-      <c r="C22" t="str">
-        <v>Vũ</v>
-      </c>
-      <c r="D22" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
-      </c>
-      <c r="E22" s="1">
+    <row r="26" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>21</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="10">
         <v>310</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Tổng cộng</v>
-      </c>
-      <c r="E23" s="1">
+    <row r="27" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="11">
         <v>9520</v>
       </c>
     </row>
+    <row r="28" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A23:D23"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E23"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/dist/document/dest/2020/10/products/Tarfloz.xlsx
+++ b/dist/document/dest/2020/10/products/Tarfloz.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="62">
   <si>
     <t>Công ty TNHH Dược Phẩm Hoàng Trân</t>
   </si>
@@ -19,7 +19,7 @@
     <t>BÁO CÁO TÌNH HÌNH MUA BÁN THUỐC TARFLOZ</t>
   </si>
   <si>
-    <t>01/09 -&gt; 30/09/2020</t>
+    <t>27/10/2020</t>
   </si>
   <si>
     <t>STT</t>
@@ -37,36 +37,63 @@
     <t>SL</t>
   </si>
   <si>
+    <t>23/10/2020</t>
+  </si>
+  <si>
     <t>Nguyễn Thị Hồng</t>
   </si>
   <si>
     <t>Anh</t>
   </si>
   <si>
+    <t>01/10 -&gt; 16/10/2020</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
     <t>Phù Dung Thái</t>
   </si>
   <si>
     <t>Biểu</t>
   </si>
   <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t>22/10/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>26/10/2020</t>
+  </si>
+  <si>
     <t>Lương Thanh</t>
   </si>
   <si>
     <t>Bửu</t>
   </si>
   <si>
+    <t>Phạm Công</t>
+  </si>
+  <si>
+    <t>Chánh</t>
+  </si>
+  <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
     <t>Hồ Tấn</t>
   </si>
   <si>
     <t>Đạt</t>
   </si>
   <si>
-    <t>Phan Hữu Bội</t>
-  </si>
-  <si>
-    <t>Hoàn</t>
-  </si>
-  <si>
     <t>Bùi Bỉnh</t>
   </si>
   <si>
@@ -115,10 +142,10 @@
     <t>Nga</t>
   </si>
   <si>
-    <t>Võ Nguyễn Thành</t>
-  </si>
-  <si>
-    <t>Nhân</t>
+    <t>Lý Văn</t>
+  </si>
+  <si>
+    <t>Phái</t>
   </si>
   <si>
     <t>Trương Công</t>
@@ -157,10 +184,13 @@
     <t>Trân</t>
   </si>
   <si>
+    <t>Lư Hoàng</t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
     <t>Nguyễn Tuấn</t>
-  </si>
-  <si>
-    <t>Vũ</t>
   </si>
   <si>
     <t>Tổng cộng</t>
@@ -609,7 +639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E71"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
@@ -669,16 +699,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10">
-        <v>225</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -686,16 +716,16 @@
         <v>2</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" s="10">
-        <v>1500</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -703,16 +733,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" s="10">
-        <v>708</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -723,13 +753,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" s="10">
-        <v>420</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -737,16 +767,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" s="10">
-        <v>630</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -754,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E11" s="10">
-        <v>90</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -771,16 +801,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E12" s="10">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -788,16 +818,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E13" s="10">
-        <v>1950</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -805,16 +835,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E14" s="10">
-        <v>630</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -822,16 +852,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E15" s="10">
-        <v>860</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -839,16 +869,16 @@
         <v>11</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E16" s="10">
-        <v>210</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -856,16 +886,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E17" s="10">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -873,16 +903,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E18" s="10">
-        <v>720</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -890,16 +920,16 @@
         <v>14</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E19" s="10">
-        <v>60</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -907,16 +937,16 @@
         <v>15</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E20" s="10">
-        <v>168</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -924,16 +954,16 @@
         <v>16</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E21" s="10">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -941,16 +971,16 @@
         <v>17</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E22" s="10">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -958,16 +988,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E23" s="10">
-        <v>510</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -975,16 +1005,16 @@
         <v>19</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E24" s="10">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -992,16 +1022,16 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E25" s="10">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1009,43 +1039,757 @@
         <v>21</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>22</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>23</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>24</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>25</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="10">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>26</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>27</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>28</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="10">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="34" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>29</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>30</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>31</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>32</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>33</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>34</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>35</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>36</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>37</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="10">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="44" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>39</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>40</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>41</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>42</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>43</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="10">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>44</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>45</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>46</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>47</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="10">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
         <v>48</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="B53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E53" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
         <v>49</v>
       </c>
-      <c r="E26" s="10">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="B54" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
         <v>50</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="11">
-        <v>9520</v>
-      </c>
-    </row>
-    <row r="28" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="B55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
         <v>51</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
+      <c r="B56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>52</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>53</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>54</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>55</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E60" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>56</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>57</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="10">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>58</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>59</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="10">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>60</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>61</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>62</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>63</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="11">
+        <v>8306</v>
+      </c>
+    </row>
+    <row r="70" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="16" customHeight="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A69:D69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
